--- a/sellerflash-otomasyon-linkler/Bath.xlsx
+++ b/sellerflash-otomasyon-linkler/Bath.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Library/CloudStorage/GoogleDrive-skywalkerpluton@gmail.com/Drive'ım/Amazon/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63424AC4-138D-704F-B9EC-AFFA6A350E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12765B8A-CF9A-0449-827D-6C92FCB9890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="740" windowWidth="25540" windowHeight="16960" xr2:uid="{2D4C8DFB-753C-5144-9F7C-E8DF38770858}"/>
+    <workbookView xWindow="3860" yWindow="740" windowWidth="25540" windowHeight="16860" xr2:uid="{2D4C8DFB-753C-5144-9F7C-E8DF38770858}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
